--- a/docs/【1班】テーブル定義書_fix_0129.xlsx
+++ b/docs/【1班】テーブル定義書_fix_0129.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\JavaBoard_styET\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6CE30D-9949-48B4-8B92-090F9B7944EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD81192-B263-4DE8-8CE8-EC677021F66D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="Image" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -1233,10 +1234,6 @@
   </si>
   <si>
     <t>VARCHAR2(512)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1258,6 +1255,181 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名無しさん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>NUMBER(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>NUMBER(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2, 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>NUMBER(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3, 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARYKEY DEFAULT Post_Sequence.NEXTVAL </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCES </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <r>
       <t>CREATE SEQUENCE Thread_ID_Sequence
 START WITH 1
@@ -1266,7 +1438,7 @@
 NOCACHE;
 CREATE TABLE THREAD (
 Thread_ID NUMBER(2, 0) CONSTRAINT PK_Thread_ID PRIMARY KEY DEFAULT Thread_ID_Sequence.NEXTVAL 
-,Thread_Name VARCHAR2(60) UQ_Thread_Name NOT NULL UNIQUE
+,Thread_Name VARCHAR2(60) CONSTRAINT UQ_Thread_Name NOT NULL UNIQUE
 ,Creator_name VARCHAR2(100) DEFAULT '</t>
     </r>
     <r>
@@ -1294,184 +1466,6 @@
 );
 </t>
     </r>
-    <rPh sb="386" eb="388">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>DEFAULT '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名無しさん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>NUMBER(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>VARCHAR2(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>VARCHAR2(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>NUMBER(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2, 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>NUMBER(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3, 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>DEFAULT CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMARYKEY DEFAULT Post_Sequence.NEXTVAL </t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCES </t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1509,7 +1503,7 @@
       </rPr>
       <t>'
 ,Create_time TIMESTAMP DEFAULT CURRENT_TIMESTAMP
-,Likes NUMBER(2, 0) DEFAULT 0
+,Likes NUMBER(2, 0) DEFAULT 0 
 ,Post_Reply_ID NUMBER(3, 0) REFERENCES Post(Post_ID)
 CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
 );</t>
@@ -1951,6 +1945,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2003,6 +1998,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2020,11 +2019,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2297,7 +2291,7 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2346,34 +2340,34 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2481,7 +2475,9 @@
   </sheetPr>
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="D3" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2511,20 +2507,20 @@
       <c r="D4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="K4" s="44" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="K4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31">
@@ -2536,18 +2532,18 @@
       <c r="D5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="49"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="50"/>
     </row>
     <row r="6" spans="2:16" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31">
@@ -2559,18 +2555,18 @@
       <c r="D6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31">
@@ -2582,18 +2578,18 @@
       <c r="D7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31">
@@ -2601,16 +2597,16 @@
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="49"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31">
@@ -2618,36 +2614,36 @@
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2680,9 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2695,7 +2693,7 @@
     <col min="7" max="7" width="25.33203125" style="14" customWidth="1"/>
     <col min="8" max="8" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" style="14" customWidth="1"/>
     <col min="12" max="16384" width="12.6640625" style="14"/>
   </cols>
@@ -2713,12 +2711,12 @@
       <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
@@ -2739,13 +2737,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="64" t="str">
         <f>目次・概要!D2</f>
         <v>JavaBoard_styET</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="60"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="18" t="s">
         <v>21</v>
       </c>
@@ -2769,17 +2767,17 @@
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="60"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
@@ -2806,10 +2804,10 @@
       <c r="I5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
@@ -2832,10 +2830,10 @@
         <v>81</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
@@ -2858,10 +2856,10 @@
       <c r="I7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="60"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
@@ -2879,13 +2877,13 @@
         <v>59</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
@@ -2906,10 +2904,10 @@
         <v>42</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="60"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
@@ -2922,8 +2920,8 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -2947,162 +2945,162 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
+      <c r="B17" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3130,7 +3128,9 @@
   </sheetPr>
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3147,12 +3147,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
@@ -3173,13 +3173,13 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="64" t="str">
         <f>目次・概要!D2</f>
         <v>JavaBoard_styET</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="60"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="18" t="s">
         <v>22</v>
       </c>
@@ -3203,17 +3203,17 @@
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="28"/>
     </row>
     <row r="5" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -3241,10 +3241,10 @@
       <c r="I5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
@@ -3269,10 +3269,10 @@
       <c r="I6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="60"/>
+      <c r="J6" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
@@ -3292,15 +3292,15 @@
         <v>58</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="60"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
@@ -3318,13 +3318,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="60"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
@@ -3342,13 +3342,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="60"/>
+      <c r="J9" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
@@ -3369,10 +3369,10 @@
         <v>42</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="60"/>
+      <c r="J10" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
@@ -3390,13 +3390,13 @@
         <v>66</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="60"/>
+      <c r="J11" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
@@ -3416,13 +3416,13 @@
         <v>68</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="60"/>
+      <c r="J12" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
@@ -3433,162 +3433,162 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
+      <c r="B18" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="2:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3618,7 +3618,9 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3645,12 +3647,12 @@
       <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
@@ -3671,13 +3673,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="64" t="str">
         <f>目次・概要!D2</f>
         <v>JavaBoard_styET</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="60"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="18" t="s">
         <v>23</v>
       </c>
@@ -3701,17 +3703,17 @@
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="60"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
@@ -3738,10 +3740,10 @@
       <c r="I5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
@@ -3766,10 +3768,10 @@
       <c r="I6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="60"/>
+      <c r="J6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
@@ -3792,10 +3794,10 @@
         <v>74</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="60"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
@@ -3818,10 +3820,10 @@
       <c r="I8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
@@ -3832,20 +3834,20 @@
       <c r="E9" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="35" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
@@ -3858,8 +3860,8 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
@@ -3883,161 +3885,161 @@
     </row>
     <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+        <v>84</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/docs/【1班】テーブル定義書_fix_0129.xlsx
+++ b/docs/【1班】テーブル定義書_fix_0129.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\JavaBoard_styET\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD81192-B263-4DE8-8CE8-EC677021F66D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56927830-BA81-4F68-971E-1BC166C32961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,11 @@
     <sheet name="Image" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -1186,10 +1185,6 @@
     <rPh sb="9" eb="11">
       <t>ナナ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>NUMBER(3, 0)</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1229,204 +1224,257 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>NUMBER(2, 0)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>VARCHAR2(512)</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>PRIMARY KEY DEFAULT Image_ID_Sequence.NEXTVAL</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名無しさん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>NUMBER(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2, 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>NUMBER(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3, 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARYKEY DEFAULT Post_Sequence.NEXTVAL </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCES </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>NUMBER(4, 0)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>NUMBER(5, 0)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>NUMBER(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>CREATE SEQUENCE Image_ID_Sequence
 START WITH 1
 INCREMENT BY 1
-MAXVALUE 99
+MAXVALUE 9999
 NOCACHE;
 CREATE TABLE Image (
-Image_ID NUMBER(2, 0) CONSTRAINT PK_Image_ID PRIMARY KEY DEFAULT Image_ID_Sequence.NEXTVAL 
-,Post_ID NUMBER(3, 0) CONSTRAINT FK_Image_Post_ID REFERENCES Post(Post_ID)
+Image_ID NUMBER(4, 0) CONSTRAINT PK_Image_ID PRIMARY KEY DEFAULT Image_ID_Sequence.NEXTVAL 
+,Post_ID NUMBER(5, 0) CONSTRAINT FK_Image_Post_ID REFERENCES Post(Post_ID)
 ,File_Path VARCHAR2(512) CONSTRAINT UQ_Image_File_Path NOT NULL UNIQUE
 ,File_Name VARCHAR2(100) CONSTRAINT NN_Image_File_Name NOT NULL
 );</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>DEFAULT '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <r>
+      <t>CREATE SEQUENCE Post_ID_Sequence
+START WITH 1
+INCREMENT BY 1
+MAXVALUE 99999
+NOCACHE;
+CREATE TABLE Post (
+Post_ID NUMBER(5, 0) CONSTRAINT PK_Post_ID PRIMARY KEY DEFAULT Post_ID_Sequence.NEXTVAL 
+,Thread_ID NUMBER(4, 0) CONSTRAINT FK_Post_Thread_ID REFERENCES Thread(Thread_ID)
+,Content VARCHAR2(2000) NOT NULL
+,Post_User_Name VARCHAR2(100) DEFAULT '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>名無しさん</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <rPh sb="9" eb="11">
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>'
+,Create_time TIMESTAMP DEFAULT CURRENT_TIMESTAMP
+,Likes NUMBER(2, 0) DEFAULT 0
+,Post_Reply_ID NUMBER(3, 0) REFERENCES Post(Post_ID)
+CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
+);</t>
+    </r>
+    <rPh sb="350" eb="352">
       <t>ナナ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>NUMBER(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>VARCHAR2(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>VARCHAR2(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>NUMBER(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2, 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>NUMBER(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3, 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>DEFAULT CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMARYKEY DEFAULT Post_Sequence.NEXTVAL </t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCES </t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1434,11 +1482,11 @@
       <t>CREATE SEQUENCE Thread_ID_Sequence
 START WITH 1
 INCREMENT BY 1
-MAXVALUE 99
+MAXVALUE 9999
 NOCACHE;
 CREATE TABLE THREAD (
-Thread_ID NUMBER(2, 0) CONSTRAINT PK_Thread_ID PRIMARY KEY DEFAULT Thread_ID_Sequence.NEXTVAL 
-,Thread_Name VARCHAR2(60) CONSTRAINT UQ_Thread_Name NOT NULL UNIQUE
+Thread_ID NUMBER(4, 0) CONSTRAINT PK_Thread_ID PRIMARY KEY DEFAULT Thread_ID_Sequence.NEXTVAL 
+,Thread_Name VARCHAR2(60) UQ_Thread_Name NOT NULL UNIQUE
 ,Creator_name VARCHAR2(100) DEFAULT '</t>
     </r>
     <r>
@@ -1466,51 +1514,6 @@
 );
 </t>
     </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>CREATE SEQUENCE Post_ID_Sequence
-START WITH 1
-INCREMENT BY 1
-MAXVALUE 999
-NOCACHE;
-CREATE TABLE Post (
-Post_ID NUMBER(3, 0) CONSTRAINT PK_Post_ID PRIMARY KEY DEFAULT Post_ID_Sequence.NEXTVAL 
-,Thread_ID NUMBER(2, 0) CONSTRAINT FK_Post_Thread_ID REFERENCES Thread(Thread_ID)
-,Content VARCHAR2(2000) NOT NULL
-,Post_User_Name VARCHAR2(100) DEFAULT '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名無しさん</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>'
-,Create_time TIMESTAMP DEFAULT CURRENT_TIMESTAMP
-,Likes NUMBER(2, 0) DEFAULT 0 
-,Post_Reply_ID NUMBER(3, 0) REFERENCES Post(Post_ID)
-CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
-);</t>
-    </r>
-    <rPh sb="348" eb="350">
-      <t>ナナ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2291,7 +2294,9 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2475,9 +2480,7 @@
   </sheetPr>
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2680,8 +2683,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2696,7 @@
     <col min="7" max="7" width="25.33203125" style="14" customWidth="1"/>
     <col min="8" max="8" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="40" style="14" customWidth="1"/>
     <col min="12" max="16384" width="12.6640625" style="14"/>
   </cols>
@@ -2827,11 +2830,11 @@
         <v>58</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="61"/>
     </row>
@@ -2851,7 +2854,7 @@
         <v>59</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>24</v>
@@ -2877,7 +2880,7 @@
         <v>59</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="66" t="s">
@@ -2946,7 +2949,7 @@
     </row>
     <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
@@ -3128,8 +3131,8 @@
   </sheetPr>
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3264,13 +3267,13 @@
         <v>58</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K6" s="61"/>
     </row>
@@ -3292,13 +3295,13 @@
         <v>58</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="61"/>
     </row>
@@ -3318,7 +3321,7 @@
         <v>63</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>24</v>
@@ -3342,11 +3345,11 @@
         <v>63</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K9" s="61"/>
     </row>
@@ -3370,7 +3373,7 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K10" s="61"/>
     </row>
@@ -3390,11 +3393,11 @@
         <v>66</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" s="61"/>
     </row>
@@ -3416,11 +3419,11 @@
         <v>68</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="66" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K12" s="61"/>
     </row>
@@ -3618,8 +3621,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3763,13 +3766,13 @@
         <v>58</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="61"/>
     </row>
@@ -3791,11 +3794,11 @@
         <v>58</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="61"/>
     </row>
@@ -3815,7 +3818,7 @@
         <v>71</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>24</v>
@@ -3832,16 +3835,16 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>78</v>
-      </c>
       <c r="H9" s="22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>24</v>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>

--- a/docs/【1班】テーブル定義書_fix_0129.xlsx
+++ b/docs/【1班】テーブル定義書_fix_0129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\JavaBoard_styET\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56927830-BA81-4F68-971E-1BC166C32961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C515B2-DAC1-4BAF-8A38-30321BE621D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1419,101 +1419,101 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <r>
+      <t>CREATE SEQUENCE Thread_ID_Sequence
+START WITH 1
+INCREMENT BY 1
+MAXVALUE 9999
+NOCACHE;
+CREATE TABLE THREAD (
+Thread_ID NUMBER(4, 0) DEFAULT Thread_ID_Sequence.NEXTVAL CONSTRAINT PK_Thread_ID PRIMARY KEY 
+,Thread_Name VARCHAR2(60) CONSTRAINT UQ_Thread_Name NOT NULL UNIQUE
+,Creator_name VARCHAR2(100) DEFAULT '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名無しさん'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+,Create_time  TIMESTAMP DEFAULT CURRENT_TIMESTAMP
+);
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE SEQUENCE Post_ID_Sequence
+START WITH 1
+INCREMENT BY 1
+MAXVALUE 99999
+NOCACHE;
+CREATE TABLE Post (
+Post_ID NUMBER(5, 0) DEFAULT Post_ID_Sequence.NEXTVAL CONSTRAINT PK_Post_ID PRIMARY KEY 
+,Thread_ID NUMBER(4, 0) CONSTRAINT FK_Post_Thread_ID REFERENCES Thread(Thread_ID)
+,Content VARCHAR2(2000) NOT NULL
+,Post_User_Name VARCHAR2(100) DEFAULT '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名無しさん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>'
+,Create_time TIMESTAMP DEFAULT CURRENT_TIMESTAMP
+,Likes NUMBER(2, 0) DEFAULT 0
+,Post_Reply_ID NUMBER(3, 0) REFERENCES Post(Post_ID)
+,CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
+);</t>
+    </r>
+    <rPh sb="350" eb="352">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>CREATE SEQUENCE Image_ID_Sequence
 START WITH 1
 INCREMENT BY 1
 MAXVALUE 9999
 NOCACHE;
 CREATE TABLE Image (
-Image_ID NUMBER(4, 0) CONSTRAINT PK_Image_ID PRIMARY KEY DEFAULT Image_ID_Sequence.NEXTVAL 
+Image_ID NUMBER(4, 0) DEFAULT Image_ID_Sequence.NEXTVAL CONSTRAINT PK_Image_ID PRIMARY KEY 
 ,Post_ID NUMBER(5, 0) CONSTRAINT FK_Image_Post_ID REFERENCES Post(Post_ID)
 ,File_Path VARCHAR2(512) CONSTRAINT UQ_Image_File_Path NOT NULL UNIQUE
 ,File_Name VARCHAR2(100) CONSTRAINT NN_Image_File_Name NOT NULL
 );</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>CREATE SEQUENCE Post_ID_Sequence
-START WITH 1
-INCREMENT BY 1
-MAXVALUE 99999
-NOCACHE;
-CREATE TABLE Post (
-Post_ID NUMBER(5, 0) CONSTRAINT PK_Post_ID PRIMARY KEY DEFAULT Post_ID_Sequence.NEXTVAL 
-,Thread_ID NUMBER(4, 0) CONSTRAINT FK_Post_Thread_ID REFERENCES Thread(Thread_ID)
-,Content VARCHAR2(2000) NOT NULL
-,Post_User_Name VARCHAR2(100) DEFAULT '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名無しさん</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>'
-,Create_time TIMESTAMP DEFAULT CURRENT_TIMESTAMP
-,Likes NUMBER(2, 0) DEFAULT 0
-,Post_Reply_ID NUMBER(3, 0) REFERENCES Post(Post_ID)
-CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
-);</t>
-    </r>
-    <rPh sb="350" eb="352">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>CREATE SEQUENCE Thread_ID_Sequence
-START WITH 1
-INCREMENT BY 1
-MAXVALUE 9999
-NOCACHE;
-CREATE TABLE THREAD (
-Thread_ID NUMBER(4, 0) CONSTRAINT PK_Thread_ID PRIMARY KEY DEFAULT Thread_ID_Sequence.NEXTVAL 
-,Thread_Name VARCHAR2(60) UQ_Thread_Name NOT NULL UNIQUE
-,Creator_name VARCHAR2(100) DEFAULT '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名無しさん'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-,Create_time  TIMESTAMP DEFAULT CURRENT_TIMESTAMP
-);
-</t>
-    </r>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2294,7 +2294,7 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2683,8 +2683,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
@@ -3131,8 +3131,8 @@
   </sheetPr>
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3621,8 +3621,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>

--- a/docs/【1班】テーブル定義書_fix_0129.xlsx
+++ b/docs/【1班】テーブル定義書_fix_0129.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\JavaBoard_styET\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56927830-BA81-4F68-971E-1BC166C32961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F69D6-6372-4BA5-8D11-547FB4F23E2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1425,11 +1425,50 @@
 MAXVALUE 9999
 NOCACHE;
 CREATE TABLE Image (
-Image_ID NUMBER(4, 0) CONSTRAINT PK_Image_ID PRIMARY KEY DEFAULT Image_ID_Sequence.NEXTVAL 
+Image_ID NUMBER(4, 0) DEFAULT Image_ID_Sequence.NEXTVAL CONSTRAINT PK_Image_ID PRIMARY KEY 
 ,Post_ID NUMBER(5, 0) CONSTRAINT FK_Image_Post_ID REFERENCES Post(Post_ID)
 ,File_Path VARCHAR2(512) CONSTRAINT UQ_Image_File_Path NOT NULL UNIQUE
 ,File_Name VARCHAR2(100) CONSTRAINT NN_Image_File_Name NOT NULL
 );</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE SEQUENCE Thread_ID_Sequence
+START WITH 1
+INCREMENT BY 1
+MAXVALUE 9999
+NOCACHE;
+CREATE TABLE THREAD (
+Thread_ID NUMBER(4, 0) DEFAULT Thread_ID_Sequence.NEXTVAL CONSTRAINT PK_Thread_ID PRIMARY KEY 
+,Thread_Name VARCHAR2(60) CONSTRAINT UQ_Thread_Name NOT NULL UNIQUE
+,Creator_name VARCHAR2(100) DEFAULT '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名無しさん'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+,Create_time  TIMESTAMP DEFAULT CURRENT_TIMESTAMP
+);
+</t>
+    </r>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1440,7 +1479,7 @@
 MAXVALUE 99999
 NOCACHE;
 CREATE TABLE Post (
-Post_ID NUMBER(5, 0) CONSTRAINT PK_Post_ID PRIMARY KEY DEFAULT Post_ID_Sequence.NEXTVAL 
+Post_ID NUMBER(5, 0) DEFAULT Post_ID_Sequence.NEXTVAL CONSTRAINT PK_Post_ID PRIMARY KEY 
 ,Thread_ID NUMBER(4, 0) CONSTRAINT FK_Post_Thread_ID REFERENCES Thread(Thread_ID)
 ,Content VARCHAR2(2000) NOT NULL
 ,Post_User_Name VARCHAR2(100) DEFAULT '</t>
@@ -1469,51 +1508,12 @@
 ,Create_time TIMESTAMP DEFAULT CURRENT_TIMESTAMP
 ,Likes NUMBER(2, 0) DEFAULT 0
 ,Post_Reply_ID NUMBER(3, 0) REFERENCES Post(Post_ID)
-CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
+,CONSTRAINT FK_Post_Reply_ID FOREIGN KEY (Post_Reply_ID) REFERENCES Post(Post_ID)
 );</t>
     </r>
     <rPh sb="350" eb="352">
       <t>ナナ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t>CREATE SEQUENCE Thread_ID_Sequence
-START WITH 1
-INCREMENT BY 1
-MAXVALUE 9999
-NOCACHE;
-CREATE TABLE THREAD (
-Thread_ID NUMBER(4, 0) CONSTRAINT PK_Thread_ID PRIMARY KEY DEFAULT Thread_ID_Sequence.NEXTVAL 
-,Thread_Name VARCHAR2(60) UQ_Thread_Name NOT NULL UNIQUE
-,Creator_name VARCHAR2(100) DEFAULT '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名無しさん'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-,Create_time  TIMESTAMP DEFAULT CURRENT_TIMESTAMP
-);
-</t>
-    </r>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2683,8 +2683,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2947,9 +2947,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
@@ -3131,8 +3131,8 @@
   </sheetPr>
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="18" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
@@ -3621,8 +3621,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3886,7 +3886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
         <v>96</v>
       </c>
